--- a/Calificaciones/Notas-Corte 1.xlsx
+++ b/Calificaciones/Notas-Corte 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itceduco-my.sharepoint.com/personal/jfvillavisanb_itc_edu_co/Documents/A_Investigacion_I/Investigacion_I/Calificaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4122FB4-965D-44C2-A90E-E5AD9E6DCF29}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B0AC3DA-F1AF-4F94-BC29-F36672952A69}"/>
   <bookViews>
-    <workbookView xWindow="19650" yWindow="4785" windowWidth="15180" windowHeight="14820" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
+    <workbookView xWindow="14055" yWindow="5880" windowWidth="20505" windowHeight="14820" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Lista de Alumnos por Grupo</t>
   </si>
@@ -65,6 +65,33 @@
   </si>
   <si>
     <t>6041 PROYECTO DE INVESTIGACION I</t>
+  </si>
+  <si>
+    <t>1022377697</t>
+  </si>
+  <si>
+    <t>1015453510</t>
+  </si>
+  <si>
+    <t>1016110314</t>
+  </si>
+  <si>
+    <t>1015436238</t>
+  </si>
+  <si>
+    <t>1000255849</t>
+  </si>
+  <si>
+    <t>1013102106</t>
+  </si>
+  <si>
+    <t>1001176592</t>
+  </si>
+  <si>
+    <t>1007378735</t>
+  </si>
+  <si>
+    <t>1001187875</t>
   </si>
 </sst>
 </file>
@@ -131,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +499,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B5" sqref="B5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,6 +552,9 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" si="0">+C5*0.8+D5*0.2</f>
         <v>0</v>
@@ -533,6 +564,9 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -541,6 +575,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -553,6 +590,9 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
@@ -564,6 +604,9 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
@@ -575,6 +618,9 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
@@ -586,6 +632,9 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
@@ -597,6 +646,9 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
@@ -607,6 +659,9 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>

--- a/Calificaciones/Notas-Corte 1.xlsx
+++ b/Calificaciones/Notas-Corte 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itceduco-my.sharepoint.com/personal/jfvillavisanb_itc_edu_co/Documents/A_Investigacion_I/Investigacion_I/Calificaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B0AC3DA-F1AF-4F94-BC29-F36672952A69}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{736B4FA0-AAA1-47E7-B8E5-AF4E3972874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F848CDD2-87BF-40F7-90C9-E1B5A0AD5CCA}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="5880" windowWidth="20505" windowHeight="14820" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
+    <workbookView xWindow="7320" yWindow="5655" windowWidth="20505" windowHeight="14820" xr2:uid="{1FD1408E-01AC-4858-A689-BFB12530CE73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
   <si>
     <t>Lista de Alumnos por Grupo</t>
   </si>
@@ -65,33 +65,6 @@
   </si>
   <si>
     <t>6041 PROYECTO DE INVESTIGACION I</t>
-  </si>
-  <si>
-    <t>1022377697</t>
-  </si>
-  <si>
-    <t>1015453510</t>
-  </si>
-  <si>
-    <t>1016110314</t>
-  </si>
-  <si>
-    <t>1015436238</t>
-  </si>
-  <si>
-    <t>1000255849</t>
-  </si>
-  <si>
-    <t>1013102106</t>
-  </si>
-  <si>
-    <t>1001176592</t>
-  </si>
-  <si>
-    <t>1007378735</t>
-  </si>
-  <si>
-    <t>1001187875</t>
   </si>
 </sst>
 </file>
@@ -158,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,7 +154,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,9 +524,6 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E6" si="0">+C5*0.8+D5*0.2</f>
         <v>0</v>
@@ -564,9 +533,6 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -575,9 +541,6 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -590,9 +553,6 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
@@ -604,9 +564,6 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
@@ -618,9 +575,6 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
@@ -632,9 +586,6 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
@@ -646,9 +597,6 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
@@ -659,9 +607,6 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
